--- a/2. Hardware PCB/REV_4.0/controlo/Project Outputs for controlo_rev4/Pick Place for controlo_rev4.xlsx
+++ b/2. Hardware PCB/REV_4.0/controlo/Project Outputs for controlo_rev4/Pick Place for controlo_rev4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\20190909 - 3phase_inverter\3phase_inverter\2. Hardware PCB\REV_4.0\Project Outputs for controlo_rev4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VMORAIS\Desktop\3phase_inverter\2. Hardware PCB\REV_4.0\controlo\Project Outputs for controlo_rev4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <t>Altium Designer Pick and Place Locations</t>
   </si>
   <si>
-    <t>F:\Projects\20190909 - 3phase_inverter\3phase_inverter\2. Hardware PCB\REV_4.0\Project Outputs for controlo_rev4\Pick Place for controlo_rev4.csv</t>
+    <t>C:\Users\VMORAIS\Desktop\3phase_inverter\2. Hardware PCB\REV_4.0\controlo\Project Outputs for controlo_rev4\Pick Place for controlo_rev4.csv</t>
   </si>
   <si>
     <t>========================================================================================================================</t>
@@ -33,10 +33,10 @@
     <t>File Design Information:</t>
   </si>
   <si>
-    <t>Date:       10/03/20</t>
-  </si>
-  <si>
-    <t>Time:       21:29</t>
+    <t>Date:       16/03/20</t>
+  </si>
+  <si>
+    <t>Time:       17:03</t>
   </si>
   <si>
     <t>Revision:   Not in VersionControl</t>
@@ -75,499 +75,499 @@
     <t>LCSC PART #</t>
   </si>
   <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R 0 1/8W 0805</t>
+  </si>
+  <si>
+    <t>TopLayer</t>
+  </si>
+  <si>
+    <t>RESC_0805</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Espesso - SMD 1/8Watt 0ohms Commercial Use</t>
+  </si>
+  <si>
+    <t>C17477</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R48</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P 8p 2.54 SR DW 8P</t>
+  </si>
+  <si>
+    <t>BottomLayer</t>
+  </si>
+  <si>
+    <t>Header_8x1_8.5mm</t>
+  </si>
+  <si>
+    <t>Distribuidores e Alojamento de Fios CGrid Hrd SRDW THo le 8ckt</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>R 7k5 1/8W 0805 .1%</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Fino - SMD 7.5K OHM .1% 25ppm</t>
+  </si>
+  <si>
+    <t>C17807</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>R 5k1 1/8W 0805 .1%</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Fino - SMD 0805 5.1Kohm 1/8W .1% 25ppm</t>
+  </si>
+  <si>
+    <t>C27834</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>XMC1</t>
+  </si>
+  <si>
+    <t>IC XMC4500 Relax LITE</t>
+  </si>
+  <si>
+    <t>XMC4500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KIT_XMC45_RELAX_LITE_V1 -  Evaluation Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XMC4500 MCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Detachable On-Board Debugger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USB Powered ""</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>IC CC/CC 1W 5V</t>
+  </si>
+  <si>
+    <t>DC/DC_ISO</t>
+  </si>
+  <si>
+    <t>Conversores CC/CC com isolação 1W 5Vin 5Vout 200mA SIP7</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>IC AmpIso BIPOL AMC1200</t>
+  </si>
+  <si>
+    <t>SOIC8</t>
+  </si>
+  <si>
+    <t>Amplificadores de isolamento 4kV peak Iso Amp</t>
+  </si>
+  <si>
+    <t>C79905</t>
+  </si>
+  <si>
+    <t>R36</t>
+  </si>
+  <si>
+    <t>R 560 1/8W 0805 .1%</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Fino - SMD 1/8W 3.6K ohm .1% 25ppm</t>
+  </si>
+  <si>
+    <t>C28636</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>R 330 1/8 0805 .1%</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Fino - SMD CPF 0805 330R 0.1% 25PPM 1K RL</t>
+  </si>
+  <si>
+    <t>C17630</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>R 100k 1/8W 0805 .1%</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Fino - SMD 100 Kohm .1% 0805 25PPM</t>
+  </si>
+  <si>
+    <t>C17407</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>R38</t>
+  </si>
+  <si>
+    <t>R37</t>
+  </si>
+  <si>
+    <t>R47</t>
+  </si>
+  <si>
+    <t>R46</t>
+  </si>
+  <si>
+    <t>R45</t>
+  </si>
+  <si>
+    <t>R44</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C 10uF 0805 MLCC 25V X5R</t>
+  </si>
+  <si>
+    <t>CAPC_0805</t>
+  </si>
+  <si>
+    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT 10uF 25V X5R +/-10% 0805 Gen Purp</t>
+  </si>
+  <si>
+    <t>C15850</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C 1uF 0805 MLCC 50V X5R</t>
+  </si>
+  <si>
+    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT 0805 50V 1uF 20% X5R</t>
+  </si>
+  <si>
+    <t>C28323</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C 10nF 0805 MLCC 50V X7R</t>
+  </si>
+  <si>
+    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT 10nF 50V X7R 10%</t>
+  </si>
+  <si>
+    <t>C1710</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>R72</t>
+  </si>
+  <si>
+    <t>R71</t>
+  </si>
+  <si>
+    <t>R70</t>
+  </si>
+  <si>
+    <t>R69</t>
+  </si>
+  <si>
+    <t>R68</t>
+  </si>
+  <si>
+    <t>R62</t>
+  </si>
+  <si>
+    <t>R61</t>
+  </si>
+  <si>
+    <t>R60</t>
+  </si>
+  <si>
+    <t>R59</t>
+  </si>
+  <si>
+    <t>R58</t>
+  </si>
+  <si>
+    <t>R52</t>
+  </si>
+  <si>
+    <t>R50</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>IC NAND HEF4011</t>
+  </si>
+  <si>
+    <t>SOIC-14N</t>
+  </si>
+  <si>
+    <t>Portas lógicas QUADRUPLE 2-INPUT NAND GATE</t>
+  </si>
+  <si>
+    <t>C6725</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P 2p 5mm</t>
+  </si>
+  <si>
+    <t>connector1x2_parafuso</t>
+  </si>
+  <si>
+    <t>Bloques de terminales de PCB de perfil estándar RS de 5,0 mm</t>
+  </si>
+  <si>
+    <t>R49</t>
+  </si>
+  <si>
+    <t>R51</t>
+  </si>
+  <si>
+    <t>R53</t>
+  </si>
+  <si>
+    <t>R54</t>
+  </si>
+  <si>
+    <t>R55</t>
+  </si>
+  <si>
+    <t>R56</t>
+  </si>
+  <si>
+    <t>R57</t>
+  </si>
+  <si>
+    <t>R63</t>
+  </si>
+  <si>
+    <t>R64</t>
+  </si>
+  <si>
+    <t>R65</t>
+  </si>
+  <si>
+    <t>R66</t>
+  </si>
+  <si>
+    <t>R67</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
     <t>C3</t>
-  </si>
-  <si>
-    <t>C 10uF 0805 MLCC 25V X5R</t>
-  </si>
-  <si>
-    <t>TopLayer</t>
-  </si>
-  <si>
-    <t>CAPC_0805</t>
-  </si>
-  <si>
-    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT 10uF 25V X5R +/-10% 0805 Gen Purp</t>
-  </si>
-  <si>
-    <t>C15850</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>IC AmpIso BIPOL AMC1200</t>
-  </si>
-  <si>
-    <t>SOIC8</t>
-  </si>
-  <si>
-    <t>Amplificadores de isolamento 4kV peak Iso Amp</t>
-  </si>
-  <si>
-    <t>C94069</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P 8p 2.54 SR DW 8P</t>
-  </si>
-  <si>
-    <t>Header_8x1_8.5mm</t>
-  </si>
-  <si>
-    <t>Distribuidores e Alojamento de Fios CGrid Hrd SRDW THo le 8ckt</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R 0 1/8W 0805</t>
-  </si>
-  <si>
-    <t>RESC_0805</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Espesso - SMD 1/8Watt 0ohms Commercial Use</t>
-  </si>
-  <si>
-    <t>C17477</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R27</t>
-  </si>
-  <si>
-    <t>R 7k5 1/8W 0805 .1%</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Fino - SMD 7.5K OHM .1% 25ppm</t>
-  </si>
-  <si>
-    <t>C17807</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>R 5k1 1/8W 0805 .1%</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Fino - SMD 0805 5.1Kohm 1/8W .1% 25ppm</t>
-  </si>
-  <si>
-    <t>C27834</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>C18</t>
-  </si>
-  <si>
-    <t>P11</t>
-  </si>
-  <si>
-    <t>P 2p 5mm</t>
-  </si>
-  <si>
-    <t>BottomLayer</t>
-  </si>
-  <si>
-    <t>connector1x2_parafuso</t>
-  </si>
-  <si>
-    <t>Bloques de terminales de PCB de perfil estándar RS de 5,0 mm</t>
-  </si>
-  <si>
-    <t>P9</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>IC CC/CC 1W 5V</t>
-  </si>
-  <si>
-    <t>DC/DC_ISO</t>
-  </si>
-  <si>
-    <t>Conversores CC/CC com isolação 1W 5Vin 5Vout 200mA SIP7</t>
-  </si>
-  <si>
-    <t>R67</t>
-  </si>
-  <si>
-    <t>R 100k 1/8W 0805 .1%</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Fino - SMD 100 Kohm .1% 0805 25PPM</t>
-  </si>
-  <si>
-    <t>C17407</t>
-  </si>
-  <si>
-    <t>R66</t>
-  </si>
-  <si>
-    <t>R65</t>
-  </si>
-  <si>
-    <t>R64</t>
-  </si>
-  <si>
-    <t>R63</t>
-  </si>
-  <si>
-    <t>R57</t>
-  </si>
-  <si>
-    <t>R56</t>
-  </si>
-  <si>
-    <t>R55</t>
-  </si>
-  <si>
-    <t>R54</t>
-  </si>
-  <si>
-    <t>R53</t>
-  </si>
-  <si>
-    <t>R51</t>
-  </si>
-  <si>
-    <t>R 560 1/8W 0805 .1%</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Fino - SMD 1/8W 3.6K ohm .1% 25ppm</t>
-  </si>
-  <si>
-    <t>C28636</t>
-  </si>
-  <si>
-    <t>R49</t>
-  </si>
-  <si>
-    <t>R 330 1/8 0805 .1%</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Fino - SMD CPF 0805 330R 0.1% 25PPM 1K RL</t>
-  </si>
-  <si>
-    <t>C17630</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>C 10nF 0805 MLCC 50V X7R</t>
-  </si>
-  <si>
-    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT 10nF 50V X7R 10%</t>
-  </si>
-  <si>
-    <t>C1710</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>C 1uF 0805 MLCC 50V X5R</t>
-  </si>
-  <si>
-    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT 0805 50V 1uF 20% X5R</t>
-  </si>
-  <si>
-    <t>C28323</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>IC NAND HEF4011</t>
-  </si>
-  <si>
-    <t>SOIC-14N</t>
-  </si>
-  <si>
-    <t>Portas lógicas QUADRUPLE 2-INPUT NAND GATE</t>
-  </si>
-  <si>
-    <t>C6725</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>R50</t>
-  </si>
-  <si>
-    <t>R52</t>
-  </si>
-  <si>
-    <t>R58</t>
-  </si>
-  <si>
-    <t>R59</t>
-  </si>
-  <si>
-    <t>R60</t>
-  </si>
-  <si>
-    <t>R61</t>
-  </si>
-  <si>
-    <t>R62</t>
-  </si>
-  <si>
-    <t>R68</t>
-  </si>
-  <si>
-    <t>R69</t>
-  </si>
-  <si>
-    <t>R70</t>
-  </si>
-  <si>
-    <t>R71</t>
-  </si>
-  <si>
-    <t>R72</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>R43</t>
-  </si>
-  <si>
-    <t>R44</t>
-  </si>
-  <si>
-    <t>R45</t>
-  </si>
-  <si>
-    <t>R46</t>
-  </si>
-  <si>
-    <t>R47</t>
-  </si>
-  <si>
-    <t>R37</t>
-  </si>
-  <si>
-    <t>R38</t>
-  </si>
-  <si>
-    <t>R41</t>
-  </si>
-  <si>
-    <t>R40</t>
-  </si>
-  <si>
-    <t>R39</t>
-  </si>
-  <si>
-    <t>R35</t>
-  </si>
-  <si>
-    <t>R36</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>R23</t>
-  </si>
-  <si>
-    <t>R26</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
-    <t>R31</t>
-  </si>
-  <si>
-    <t>R33</t>
-  </si>
-  <si>
-    <t>XMC1</t>
-  </si>
-  <si>
-    <t>IC XMC4500 Relax LITE</t>
-  </si>
-  <si>
-    <t>XMC4500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  KIT_XMC45_RELAX_LITE_V1 -  Evaluation Board</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> XMC4500 MCU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Detachable On-Board Debugger</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USB Powered ""</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>R28</t>
-  </si>
-  <si>
-    <t>R30</t>
-  </si>
-  <si>
-    <t>R32</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>R34</t>
-  </si>
-  <si>
-    <t>R42</t>
-  </si>
-  <si>
-    <t>R48</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R11</t>
   </si>
 </sst>
 </file>
@@ -1376,14 +1376,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="O96" sqref="O96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1474,10 +1473,10 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1765</v>
+        <v>465</v>
       </c>
       <c r="F14">
-        <v>2870</v>
+        <v>2970</v>
       </c>
       <c r="G14">
         <v>270</v>
@@ -1503,13 +1502,13 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1295</v>
+        <v>1505</v>
       </c>
       <c r="F15">
-        <v>2865</v>
+        <v>2970</v>
       </c>
       <c r="G15">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
         <v>22</v>
@@ -1532,10 +1531,10 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>820</v>
+        <v>945</v>
       </c>
       <c r="F16">
-        <v>2865</v>
+        <v>2970</v>
       </c>
       <c r="G16">
         <v>270</v>
@@ -1552,288 +1551,294 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>380</v>
+        <v>685</v>
       </c>
       <c r="F17">
-        <v>979.56700000000001</v>
+        <v>2340</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1995</v>
+        <v>595</v>
       </c>
       <c r="F18">
-        <v>3505</v>
+        <v>2340</v>
       </c>
       <c r="G18">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>1995</v>
+        <v>1160</v>
       </c>
       <c r="F19">
-        <v>3135</v>
+        <v>2340</v>
       </c>
       <c r="G19">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>1405</v>
+        <v>1070</v>
       </c>
       <c r="F20">
-        <v>2970</v>
+        <v>2340</v>
       </c>
       <c r="G20">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1040</v>
+        <v>1630</v>
       </c>
       <c r="F21">
-        <v>2970</v>
+        <v>2340</v>
       </c>
       <c r="G21">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>565</v>
+        <v>1540</v>
       </c>
       <c r="F22">
-        <v>2970</v>
+        <v>2340</v>
       </c>
       <c r="G22">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2965</v>
+        <v>2685</v>
       </c>
       <c r="F23">
-        <v>1365</v>
+        <v>3070</v>
       </c>
       <c r="G23">
         <v>90</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E24">
-        <v>3060</v>
+        <v>2595</v>
       </c>
       <c r="F24">
-        <v>1365</v>
+        <v>3070</v>
       </c>
       <c r="G24">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>2710</v>
+        <v>2475</v>
       </c>
       <c r="F25">
-        <v>1365</v>
+        <v>3070</v>
       </c>
       <c r="G25">
         <v>90</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E26">
-        <v>2810</v>
+        <v>2665</v>
       </c>
       <c r="F26">
-        <v>1365</v>
+        <v>1864.37</v>
       </c>
       <c r="G26">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -1845,10 +1850,10 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>200</v>
+        <v>2575</v>
       </c>
       <c r="F27">
-        <v>1230</v>
+        <v>1865</v>
       </c>
       <c r="G27">
         <v>270</v>
@@ -1862,578 +1867,578 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E28">
-        <v>590</v>
+        <v>2485</v>
       </c>
       <c r="F28">
-        <v>60</v>
+        <v>1865</v>
       </c>
       <c r="G28">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s">
-        <v>58</v>
+        <v>22</v>
+      </c>
+      <c r="I28" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E29">
-        <v>1574.37</v>
+        <v>3260</v>
       </c>
       <c r="F29">
-        <v>65</v>
+        <v>815</v>
       </c>
       <c r="G29">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E30">
-        <v>2395</v>
+        <v>3365</v>
       </c>
       <c r="F30">
-        <v>979.56700000000001</v>
+        <v>815</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E31">
-        <v>2770</v>
+        <v>1465</v>
       </c>
       <c r="F31">
-        <v>960.59100000000001</v>
+        <v>1870</v>
       </c>
       <c r="G31">
         <v>270</v>
       </c>
       <c r="H31" t="s">
-        <v>64</v>
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E32">
-        <v>2390</v>
+        <v>1370</v>
       </c>
       <c r="F32">
-        <v>575</v>
+        <v>1870</v>
       </c>
       <c r="G32">
+        <v>90</v>
+      </c>
+      <c r="H32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1905</v>
+      </c>
+      <c r="F33">
+        <v>1865</v>
+      </c>
+      <c r="G33">
+        <v>270</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>1815</v>
+      </c>
+      <c r="F34">
+        <v>1865</v>
+      </c>
+      <c r="G34">
+        <v>90</v>
+      </c>
+      <c r="H34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>1665</v>
+      </c>
+      <c r="F35">
+        <v>1875</v>
+      </c>
+      <c r="G35">
+        <v>270</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>1575</v>
+      </c>
+      <c r="F36">
+        <v>1875</v>
+      </c>
+      <c r="G36">
+        <v>90</v>
+      </c>
+      <c r="H36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>2895</v>
+      </c>
+      <c r="F37">
+        <v>1865</v>
+      </c>
+      <c r="G37">
+        <v>90</v>
+      </c>
+      <c r="H37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38">
+        <v>2805</v>
+      </c>
+      <c r="F38">
+        <v>1865</v>
+      </c>
+      <c r="G38">
+        <v>90</v>
+      </c>
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39">
+        <v>3300.0010000000002</v>
+      </c>
+      <c r="F39">
+        <v>2550</v>
+      </c>
+      <c r="G39">
         <v>360</v>
       </c>
-      <c r="H32" t="s">
-        <v>67</v>
-      </c>
-      <c r="I32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33">
-        <v>2390</v>
-      </c>
-      <c r="F33">
-        <v>440</v>
-      </c>
-      <c r="G33">
-        <v>180</v>
-      </c>
-      <c r="H33" t="s">
-        <v>67</v>
-      </c>
-      <c r="I33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34">
-        <v>2390</v>
-      </c>
-      <c r="F34">
-        <v>305</v>
-      </c>
-      <c r="G34">
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40">
+        <v>3300.0010000000002</v>
+      </c>
+      <c r="F40">
+        <v>2450</v>
+      </c>
+      <c r="G40">
         <v>360</v>
       </c>
-      <c r="H34" t="s">
-        <v>67</v>
-      </c>
-      <c r="I34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35">
-        <v>2255</v>
-      </c>
-      <c r="F35">
-        <v>235</v>
-      </c>
-      <c r="G35">
-        <v>90</v>
-      </c>
-      <c r="H35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36">
-        <v>2292.4009999999998</v>
-      </c>
-      <c r="F36">
+      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>60</v>
       </c>
-      <c r="G36">
-        <v>180</v>
-      </c>
-      <c r="H36" t="s">
-        <v>67</v>
-      </c>
-      <c r="I36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37">
-        <v>2820</v>
-      </c>
-      <c r="F37">
-        <v>575</v>
-      </c>
-      <c r="G37">
-        <v>180</v>
-      </c>
-      <c r="H37" t="s">
-        <v>67</v>
-      </c>
-      <c r="I37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38">
-        <v>2820</v>
-      </c>
-      <c r="F38">
-        <v>440</v>
-      </c>
-      <c r="G38">
-        <v>360</v>
-      </c>
-      <c r="H38" t="s">
-        <v>67</v>
-      </c>
-      <c r="I38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39">
-        <v>2820</v>
-      </c>
-      <c r="F39">
-        <v>305</v>
-      </c>
-      <c r="G39">
-        <v>180</v>
-      </c>
-      <c r="H39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40">
-        <v>2954.37</v>
-      </c>
-      <c r="F40">
-        <v>215</v>
-      </c>
-      <c r="G40">
-        <v>90</v>
-      </c>
-      <c r="H40" t="s">
-        <v>67</v>
-      </c>
-      <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>77</v>
-      </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E41">
-        <v>2915</v>
+        <v>2215.0010000000002</v>
       </c>
       <c r="F41">
-        <v>60</v>
+        <v>2550</v>
       </c>
       <c r="G41">
         <v>360</v>
       </c>
       <c r="H41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>2215.0010000000002</v>
+      </c>
+      <c r="F42">
+        <v>2450</v>
+      </c>
+      <c r="G42">
+        <v>360</v>
+      </c>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43">
+        <v>2095</v>
+      </c>
+      <c r="F43">
+        <v>2486.4569999999999</v>
+      </c>
+      <c r="G43">
+        <v>270</v>
+      </c>
+      <c r="H43" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+      <c r="J43" t="s">
         <v>67</v>
       </c>
-      <c r="I41" t="s">
+      <c r="K43" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42">
-        <v>2605</v>
-      </c>
-      <c r="F42">
-        <v>660</v>
-      </c>
-      <c r="G42">
-        <v>180</v>
-      </c>
-      <c r="H42" t="s">
-        <v>80</v>
-      </c>
-      <c r="I42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43">
-        <v>2509.64</v>
-      </c>
-      <c r="F43">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44">
+        <v>2310</v>
+      </c>
+      <c r="F44">
         <v>1365</v>
       </c>
-      <c r="G43">
+      <c r="G44">
+        <v>270</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45">
+        <v>2409.8200000000002</v>
+      </c>
+      <c r="F45">
+        <v>1365</v>
+      </c>
+      <c r="G45">
         <v>90</v>
       </c>
-      <c r="H43" t="s">
-        <v>84</v>
-      </c>
-      <c r="I43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44">
-        <v>2595</v>
-      </c>
-      <c r="F44">
-        <v>60</v>
-      </c>
-      <c r="G44">
-        <v>360</v>
-      </c>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45">
-        <v>2195</v>
-      </c>
-      <c r="F45">
-        <v>1230</v>
-      </c>
-      <c r="G45">
+      <c r="H45" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46">
+        <v>615</v>
+      </c>
+      <c r="F46">
+        <v>1365</v>
+      </c>
+      <c r="G46">
         <v>270</v>
       </c>
-      <c r="H45" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46">
-        <v>2610</v>
-      </c>
-      <c r="F46">
-        <v>1363.588</v>
-      </c>
-      <c r="G46">
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47">
+        <v>518.33299999999997</v>
+      </c>
+      <c r="F47">
+        <v>1365</v>
+      </c>
+      <c r="G47">
         <v>90</v>
       </c>
-      <c r="H46" t="s">
-        <v>90</v>
-      </c>
-      <c r="I46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47">
-        <v>2603.5880000000002</v>
-      </c>
-      <c r="F47">
-        <v>575.53899999999999</v>
-      </c>
-      <c r="G47">
-        <v>180</v>
-      </c>
       <c r="H47" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="I47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>
@@ -2442,27 +2447,27 @@
         <v>21</v>
       </c>
       <c r="E48">
-        <v>2235</v>
+        <v>1585</v>
       </c>
       <c r="F48">
-        <v>760</v>
+        <v>1365</v>
       </c>
       <c r="G48">
         <v>270</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
         <v>20</v>
@@ -2471,114 +2476,111 @@
         <v>21</v>
       </c>
       <c r="E49">
-        <v>2860</v>
+        <v>1488.3330000000001</v>
       </c>
       <c r="F49">
-        <v>805</v>
+        <v>1365</v>
       </c>
       <c r="G49">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I49" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E50">
-        <v>1512.7159999999999</v>
+        <v>1744.37</v>
       </c>
       <c r="F50">
-        <v>2680</v>
+        <v>965.59100000000001</v>
       </c>
       <c r="G50">
         <v>270</v>
       </c>
       <c r="H50" t="s">
-        <v>101</v>
-      </c>
-      <c r="I50" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
         <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E51">
-        <v>1050</v>
+        <v>1370</v>
       </c>
       <c r="F51">
-        <v>2675</v>
+        <v>979.56700000000001</v>
       </c>
       <c r="G51">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="I51" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="E52">
-        <v>570</v>
+        <v>1579.37</v>
       </c>
       <c r="F52">
-        <v>2675</v>
+        <v>675</v>
       </c>
       <c r="G52">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H52" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I52" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
         <v>20</v>
@@ -2587,27 +2589,27 @@
         <v>21</v>
       </c>
       <c r="E53">
-        <v>845</v>
+        <v>1295</v>
       </c>
       <c r="F53">
-        <v>825</v>
+        <v>1365</v>
       </c>
       <c r="G53">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I53" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
         <v>20</v>
@@ -2616,24 +2618,24 @@
         <v>21</v>
       </c>
       <c r="E54">
-        <v>225</v>
+        <v>1784.37</v>
       </c>
       <c r="F54">
-        <v>760</v>
+        <v>310</v>
       </c>
       <c r="G54">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H54" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I54" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
         <v>93</v>
@@ -2645,13 +2647,13 @@
         <v>21</v>
       </c>
       <c r="E55">
-        <v>600</v>
+        <v>1784.37</v>
       </c>
       <c r="F55">
-        <v>565</v>
+        <v>445</v>
       </c>
       <c r="G55">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="H55" t="s">
         <v>94</v>
@@ -2662,10 +2664,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
         <v>20</v>
@@ -2674,381 +2676,381 @@
         <v>21</v>
       </c>
       <c r="E56">
-        <v>422.20600000000002</v>
+        <v>1784.37</v>
       </c>
       <c r="F56">
-        <v>1366.412</v>
+        <v>580</v>
       </c>
       <c r="G56">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H56" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I56" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E57">
-        <v>325</v>
+        <v>1921.7719999999999</v>
       </c>
       <c r="F57">
-        <v>1365</v>
+        <v>240</v>
       </c>
       <c r="G57">
         <v>90</v>
       </c>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I57" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E58">
-        <v>600</v>
+        <v>1884.37</v>
       </c>
       <c r="F58">
-        <v>650</v>
+        <v>65</v>
       </c>
       <c r="G58">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I58" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E59">
-        <v>912.46100000000001</v>
+        <v>1385</v>
       </c>
       <c r="F59">
-        <v>60</v>
+        <v>580</v>
       </c>
       <c r="G59">
         <v>360</v>
       </c>
       <c r="H59" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="I59" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E60">
-        <v>949.86199999999997</v>
+        <v>1384.37</v>
       </c>
       <c r="F60">
-        <v>235</v>
+        <v>445</v>
       </c>
       <c r="G60">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H60" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="I60" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E61">
-        <v>810</v>
+        <v>1384.37</v>
       </c>
       <c r="F61">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G61">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="I61" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E62">
-        <v>810</v>
+        <v>1249.3699999999999</v>
       </c>
       <c r="F62">
-        <v>448.93299999999999</v>
+        <v>240</v>
       </c>
       <c r="G62">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="I62" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E63">
-        <v>810</v>
+        <v>1289.3699999999999</v>
       </c>
       <c r="F63">
-        <v>566.06700000000001</v>
+        <v>65</v>
       </c>
       <c r="G63">
         <v>180</v>
       </c>
       <c r="H63" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="I63" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s">
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E64">
-        <v>294.86200000000002</v>
+        <v>1205</v>
       </c>
       <c r="F64">
-        <v>60</v>
+        <v>760</v>
       </c>
       <c r="G64">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="H64" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="I64" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s">
         <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E65">
-        <v>257.46100000000001</v>
+        <v>1844.37</v>
       </c>
       <c r="F65">
-        <v>235</v>
+        <v>825</v>
       </c>
       <c r="G65">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="H65" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="I65" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s">
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E66">
-        <v>395</v>
+        <v>1579.37</v>
       </c>
       <c r="F66">
-        <v>305</v>
+        <v>585</v>
       </c>
       <c r="G66">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="H66" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="I66" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
         <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E67">
-        <v>395</v>
+        <v>1190</v>
       </c>
       <c r="F67">
-        <v>448.93299999999999</v>
+        <v>1230</v>
       </c>
       <c r="G67">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="H67" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="I67" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
         <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E68">
-        <v>395</v>
+        <v>1392.2059999999999</v>
       </c>
       <c r="F68">
-        <v>566.06700000000001</v>
+        <v>1363.588</v>
       </c>
       <c r="G68">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="I68" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E69">
         <v>760</v>
@@ -3060,15 +3062,15 @@
         <v>270</v>
       </c>
       <c r="H69" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
         <v>20</v>
@@ -3077,27 +3079,27 @@
         <v>21</v>
       </c>
       <c r="E70">
-        <v>1392.2059999999999</v>
+        <v>395</v>
       </c>
       <c r="F70">
-        <v>1363.588</v>
+        <v>566.06700000000001</v>
       </c>
       <c r="G70">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I70" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
         <v>20</v>
@@ -3106,24 +3108,24 @@
         <v>21</v>
       </c>
       <c r="E71">
-        <v>1190</v>
+        <v>395</v>
       </c>
       <c r="F71">
-        <v>1230</v>
+        <v>448.93299999999999</v>
       </c>
       <c r="G71">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H71" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I71" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
         <v>93</v>
@@ -3135,13 +3137,13 @@
         <v>21</v>
       </c>
       <c r="E72">
-        <v>1579.37</v>
+        <v>395</v>
       </c>
       <c r="F72">
-        <v>585</v>
+        <v>305</v>
       </c>
       <c r="G72">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="H72" t="s">
         <v>94</v>
@@ -3152,10 +3154,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="C73" t="s">
         <v>20</v>
@@ -3164,27 +3166,27 @@
         <v>21</v>
       </c>
       <c r="E73">
-        <v>1844.37</v>
+        <v>257.46100000000001</v>
       </c>
       <c r="F73">
-        <v>825</v>
+        <v>235</v>
       </c>
       <c r="G73">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I73" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
@@ -3193,657 +3195,654 @@
         <v>21</v>
       </c>
       <c r="E74">
-        <v>1205</v>
+        <v>294.86200000000002</v>
       </c>
       <c r="F74">
-        <v>760</v>
+        <v>60</v>
       </c>
       <c r="G74">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H74" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I74" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C75" t="s">
         <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E75">
-        <v>1289.3699999999999</v>
+        <v>810</v>
       </c>
       <c r="F75">
-        <v>65</v>
+        <v>566.06700000000001</v>
       </c>
       <c r="G75">
         <v>180</v>
       </c>
       <c r="H75" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="I75" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
         <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E76">
-        <v>1249.3699999999999</v>
+        <v>810</v>
       </c>
       <c r="F76">
-        <v>240</v>
+        <v>448.93299999999999</v>
       </c>
       <c r="G76">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="H76" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="I76" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
         <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E77">
-        <v>1384.37</v>
+        <v>810</v>
       </c>
       <c r="F77">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H77" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="I77" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C78" t="s">
         <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E78">
-        <v>1384.37</v>
+        <v>949.86199999999997</v>
       </c>
       <c r="F78">
-        <v>445</v>
+        <v>235</v>
       </c>
       <c r="G78">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="I78" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C79" t="s">
         <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E79">
-        <v>1385</v>
+        <v>912.46100000000001</v>
       </c>
       <c r="F79">
-        <v>580</v>
+        <v>60</v>
       </c>
       <c r="G79">
         <v>360</v>
       </c>
       <c r="H79" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="I79" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80">
+        <v>600</v>
+      </c>
+      <c r="F80">
+        <v>650</v>
+      </c>
+      <c r="G80">
+        <v>180</v>
+      </c>
+      <c r="H80" t="s">
+        <v>86</v>
+      </c>
+      <c r="I80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>132</v>
       </c>
-      <c r="B80" t="s">
-        <v>66</v>
-      </c>
-      <c r="C80" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" t="s">
-        <v>38</v>
-      </c>
-      <c r="E80">
-        <v>1884.37</v>
-      </c>
-      <c r="F80">
-        <v>65</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80" t="s">
-        <v>67</v>
-      </c>
-      <c r="I80" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>133</v>
-      </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C81" t="s">
         <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E81">
-        <v>1921.7719999999999</v>
+        <v>325</v>
       </c>
       <c r="F81">
-        <v>240</v>
+        <v>1365</v>
       </c>
       <c r="G81">
         <v>90</v>
       </c>
       <c r="H81" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="I81" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82">
+        <v>422.20600000000002</v>
+      </c>
+      <c r="F82">
+        <v>1366.412</v>
+      </c>
+      <c r="G82">
+        <v>90</v>
+      </c>
+      <c r="H82" t="s">
+        <v>118</v>
+      </c>
+      <c r="I82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>134</v>
       </c>
-      <c r="B82" t="s">
-        <v>66</v>
-      </c>
-      <c r="C82" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" t="s">
-        <v>38</v>
-      </c>
-      <c r="E82">
-        <v>1784.37</v>
-      </c>
-      <c r="F82">
-        <v>580</v>
-      </c>
-      <c r="G82">
+      <c r="B83" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83">
+        <v>600</v>
+      </c>
+      <c r="F83">
+        <v>565</v>
+      </c>
+      <c r="G83">
         <v>180</v>
       </c>
-      <c r="H82" t="s">
-        <v>67</v>
-      </c>
-      <c r="I82" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="H83" t="s">
+        <v>113</v>
+      </c>
+      <c r="I83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>135</v>
       </c>
-      <c r="B83" t="s">
-        <v>66</v>
-      </c>
-      <c r="C83" t="s">
-        <v>20</v>
-      </c>
-      <c r="D83" t="s">
-        <v>38</v>
-      </c>
-      <c r="E83">
-        <v>1784.37</v>
-      </c>
-      <c r="F83">
-        <v>445</v>
-      </c>
-      <c r="G83">
-        <v>360</v>
-      </c>
-      <c r="H83" t="s">
-        <v>67</v>
-      </c>
-      <c r="I83" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84">
+        <v>225</v>
+      </c>
+      <c r="F84">
+        <v>760</v>
+      </c>
+      <c r="G84">
+        <v>270</v>
+      </c>
+      <c r="H84" t="s">
+        <v>108</v>
+      </c>
+      <c r="I84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>136</v>
       </c>
-      <c r="B84" t="s">
-        <v>66</v>
-      </c>
-      <c r="C84" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" t="s">
-        <v>38</v>
-      </c>
-      <c r="E84">
-        <v>1784.37</v>
-      </c>
-      <c r="F84">
-        <v>310</v>
-      </c>
-      <c r="G84">
-        <v>180</v>
-      </c>
-      <c r="H84" t="s">
-        <v>67</v>
-      </c>
-      <c r="I84" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>107</v>
+      </c>
+      <c r="E85">
+        <v>845</v>
+      </c>
+      <c r="F85">
+        <v>825</v>
+      </c>
+      <c r="G85">
+        <v>270</v>
+      </c>
+      <c r="H85" t="s">
+        <v>108</v>
+      </c>
+      <c r="I85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>137</v>
       </c>
-      <c r="B85" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" t="s">
-        <v>38</v>
-      </c>
-      <c r="E85">
-        <v>1295</v>
-      </c>
-      <c r="F85">
-        <v>1365</v>
-      </c>
-      <c r="G85">
-        <v>90</v>
-      </c>
-      <c r="H85" t="s">
-        <v>84</v>
-      </c>
-      <c r="I85" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
         <v>138</v>
       </c>
-      <c r="B86" t="s">
-        <v>79</v>
-      </c>
       <c r="C86" t="s">
         <v>20</v>
       </c>
       <c r="D86" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="E86">
-        <v>1579.37</v>
+        <v>570</v>
       </c>
       <c r="F86">
-        <v>675</v>
+        <v>2675</v>
       </c>
       <c r="G86">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="H86" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="I86" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" t="s">
         <v>139</v>
       </c>
-      <c r="B87" t="s">
-        <v>27</v>
-      </c>
-      <c r="C87" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" t="s">
-        <v>28</v>
-      </c>
       <c r="E87">
-        <v>1370</v>
+        <v>1050</v>
       </c>
       <c r="F87">
-        <v>979.56700000000001</v>
+        <v>2675</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="H87" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="I87" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B88" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="C88" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="E88">
-        <v>1744.37</v>
+        <v>1512.7159999999999</v>
       </c>
       <c r="F88">
-        <v>965.59100000000001</v>
+        <v>2680</v>
       </c>
       <c r="G88">
         <v>270</v>
       </c>
       <c r="H88" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="I88" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B89" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="C89" t="s">
         <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E89">
-        <v>1488.3330000000001</v>
+        <v>2860</v>
       </c>
       <c r="F89">
-        <v>1365</v>
+        <v>805</v>
       </c>
       <c r="G89">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="H89" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="I89" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B90" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="C90" t="s">
         <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E90">
-        <v>1585</v>
+        <v>2235</v>
       </c>
       <c r="F90">
-        <v>1365</v>
+        <v>760</v>
       </c>
       <c r="G90">
         <v>270</v>
       </c>
       <c r="H90" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="I90" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B91" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C91" t="s">
         <v>20</v>
       </c>
       <c r="D91" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E91">
-        <v>518.33299999999997</v>
+        <v>2603.5880000000002</v>
       </c>
       <c r="F91">
+        <v>575.53899999999999</v>
+      </c>
+      <c r="G91">
+        <v>180</v>
+      </c>
+      <c r="H91" t="s">
+        <v>113</v>
+      </c>
+      <c r="I91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>107</v>
+      </c>
+      <c r="E92">
+        <v>2610</v>
+      </c>
+      <c r="F92">
+        <v>1363.588</v>
+      </c>
+      <c r="G92">
+        <v>90</v>
+      </c>
+      <c r="H92" t="s">
+        <v>118</v>
+      </c>
+      <c r="I92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>107</v>
+      </c>
+      <c r="E93">
+        <v>2195</v>
+      </c>
+      <c r="F93">
+        <v>1230</v>
+      </c>
+      <c r="G93">
+        <v>270</v>
+      </c>
+      <c r="H93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I93" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>149</v>
+      </c>
+      <c r="B94" t="s">
+        <v>150</v>
+      </c>
+      <c r="C94" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94" t="s">
+        <v>151</v>
+      </c>
+      <c r="E94">
+        <v>2595</v>
+      </c>
+      <c r="F94">
+        <v>60</v>
+      </c>
+      <c r="G94">
+        <v>360</v>
+      </c>
+      <c r="H94" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95">
+        <v>2509.64</v>
+      </c>
+      <c r="F95">
         <v>1365</v>
       </c>
-      <c r="G91">
+      <c r="G95">
         <v>90</v>
       </c>
-      <c r="H91" t="s">
-        <v>49</v>
-      </c>
-      <c r="I91" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>144</v>
-      </c>
-      <c r="B92" t="s">
-        <v>44</v>
-      </c>
-      <c r="C92" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" t="s">
-        <v>38</v>
-      </c>
-      <c r="E92">
-        <v>615</v>
-      </c>
-      <c r="F92">
-        <v>1365</v>
-      </c>
-      <c r="G92">
-        <v>270</v>
-      </c>
-      <c r="H92" t="s">
-        <v>45</v>
-      </c>
-      <c r="I92" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>145</v>
-      </c>
-      <c r="B93" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93" t="s">
-        <v>20</v>
-      </c>
-      <c r="D93" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93">
-        <v>2409.8200000000002</v>
-      </c>
-      <c r="F93">
-        <v>1365</v>
-      </c>
-      <c r="G93">
+      <c r="H95" t="s">
         <v>90</v>
       </c>
-      <c r="H93" t="s">
-        <v>49</v>
-      </c>
-      <c r="I93" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>146</v>
-      </c>
-      <c r="B94" t="s">
-        <v>44</v>
-      </c>
-      <c r="C94" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" t="s">
-        <v>38</v>
-      </c>
-      <c r="E94">
-        <v>2310</v>
-      </c>
-      <c r="F94">
-        <v>1365</v>
-      </c>
-      <c r="G94">
-        <v>270</v>
-      </c>
-      <c r="H94" t="s">
-        <v>45</v>
-      </c>
-      <c r="I94" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>147</v>
-      </c>
-      <c r="B95" t="s">
-        <v>148</v>
-      </c>
-      <c r="C95" t="s">
-        <v>56</v>
-      </c>
-      <c r="D95" t="s">
-        <v>149</v>
-      </c>
-      <c r="E95">
-        <v>2095</v>
-      </c>
-      <c r="F95">
-        <v>2486.4569999999999</v>
-      </c>
-      <c r="G95">
-        <v>270</v>
-      </c>
-      <c r="H95" t="s">
-        <v>150</v>
-      </c>
       <c r="I95" t="s">
-        <v>151</v>
-      </c>
-      <c r="J95" t="s">
-        <v>152</v>
-      </c>
-      <c r="K95" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>154</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C96" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E96">
-        <v>2215.0010000000002</v>
+        <v>2605</v>
       </c>
       <c r="F96">
-        <v>2450</v>
+        <v>660</v>
       </c>
       <c r="G96">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="H96" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="I96" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3851,25 +3850,28 @@
         <v>155</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="C97" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E97">
-        <v>2215.0010000000002</v>
+        <v>2915</v>
       </c>
       <c r="F97">
-        <v>2550</v>
+        <v>60</v>
       </c>
       <c r="G97">
         <v>360</v>
       </c>
       <c r="H97" t="s">
-        <v>34</v>
+        <v>94</v>
+      </c>
+      <c r="I97" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3877,25 +3879,28 @@
         <v>156</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="C98" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E98">
-        <v>3300.0010000000002</v>
+        <v>2954.37</v>
       </c>
       <c r="F98">
-        <v>2450</v>
+        <v>215</v>
       </c>
       <c r="G98">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="H98" t="s">
-        <v>34</v>
+        <v>94</v>
+      </c>
+      <c r="I98" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3903,25 +3908,28 @@
         <v>157</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="C99" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E99">
-        <v>3300.0010000000002</v>
+        <v>2820</v>
       </c>
       <c r="F99">
-        <v>2550</v>
+        <v>305</v>
       </c>
       <c r="G99">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="H99" t="s">
-        <v>34</v>
+        <v>94</v>
+      </c>
+      <c r="I99" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3929,28 +3937,28 @@
         <v>158</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="C100" t="s">
         <v>20</v>
       </c>
       <c r="D100" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E100">
-        <v>2805</v>
+        <v>2820</v>
       </c>
       <c r="F100">
-        <v>1865</v>
+        <v>440</v>
       </c>
       <c r="G100">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="H100" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3958,28 +3966,28 @@
         <v>159</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="C101" t="s">
         <v>20</v>
       </c>
       <c r="D101" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E101">
-        <v>2895</v>
+        <v>2820</v>
       </c>
       <c r="F101">
-        <v>1865</v>
+        <v>575</v>
       </c>
       <c r="G101">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H101" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="I101" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3987,28 +3995,28 @@
         <v>160</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C102" t="s">
         <v>20</v>
       </c>
       <c r="D102" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E102">
-        <v>1575</v>
+        <v>2292.4009999999998</v>
       </c>
       <c r="F102">
-        <v>1875</v>
+        <v>60</v>
       </c>
       <c r="G102">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H102" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="I102" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4016,28 +4024,28 @@
         <v>161</v>
       </c>
       <c r="B103" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C103" t="s">
         <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E103">
-        <v>1665</v>
+        <v>2255</v>
       </c>
       <c r="F103">
-        <v>1875</v>
+        <v>235</v>
       </c>
       <c r="G103">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="H103" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="I103" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -4045,28 +4053,28 @@
         <v>162</v>
       </c>
       <c r="B104" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C104" t="s">
         <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E104">
-        <v>1815</v>
+        <v>2390</v>
       </c>
       <c r="F104">
-        <v>1865</v>
+        <v>305</v>
       </c>
       <c r="G104">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="H104" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="I104" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -4074,28 +4082,28 @@
         <v>163</v>
       </c>
       <c r="B105" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C105" t="s">
         <v>20</v>
       </c>
       <c r="D105" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E105">
-        <v>1905</v>
+        <v>2390</v>
       </c>
       <c r="F105">
-        <v>1865</v>
+        <v>440</v>
       </c>
       <c r="G105">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H105" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="I105" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4103,28 +4111,28 @@
         <v>164</v>
       </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C106" t="s">
         <v>20</v>
       </c>
       <c r="D106" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E106">
-        <v>1370</v>
+        <v>2390</v>
       </c>
       <c r="F106">
-        <v>1870</v>
+        <v>575</v>
       </c>
       <c r="G106">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="H106" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="I106" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4132,28 +4140,25 @@
         <v>165</v>
       </c>
       <c r="B107" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D107" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E107">
-        <v>1465</v>
+        <v>2770</v>
       </c>
       <c r="F107">
-        <v>1870</v>
+        <v>960.59100000000001</v>
       </c>
       <c r="G107">
         <v>270</v>
       </c>
       <c r="H107" t="s">
-        <v>45</v>
-      </c>
-      <c r="I107" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4161,25 +4166,28 @@
         <v>166</v>
       </c>
       <c r="B108" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C108" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D108" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E108">
-        <v>3365</v>
+        <v>2395</v>
       </c>
       <c r="F108">
-        <v>815</v>
+        <v>979.56700000000001</v>
       </c>
       <c r="G108">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>34</v>
+        <v>82</v>
+      </c>
+      <c r="I108" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4187,25 +4195,25 @@
         <v>167</v>
       </c>
       <c r="B109" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C109" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D109" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="E109">
-        <v>3260</v>
+        <v>1574.37</v>
       </c>
       <c r="F109">
-        <v>815</v>
+        <v>65</v>
       </c>
       <c r="G109">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="H109" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4213,28 +4221,25 @@
         <v>168</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D110" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="E110">
-        <v>2485</v>
+        <v>590</v>
       </c>
       <c r="F110">
-        <v>1865</v>
+        <v>60</v>
       </c>
       <c r="G110">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="H110" t="s">
-        <v>39</v>
-      </c>
-      <c r="I110" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4242,28 +4247,28 @@
         <v>169</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C111" t="s">
         <v>20</v>
       </c>
       <c r="D111" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E111">
-        <v>2575</v>
+        <v>200</v>
       </c>
       <c r="F111">
-        <v>1865</v>
+        <v>1230</v>
       </c>
       <c r="G111">
         <v>270</v>
       </c>
       <c r="H111" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="I111" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4271,28 +4276,28 @@
         <v>170</v>
       </c>
       <c r="B112" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C112" t="s">
         <v>20</v>
       </c>
       <c r="D112" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E112">
-        <v>2665</v>
+        <v>2810</v>
       </c>
       <c r="F112">
-        <v>1864.37</v>
+        <v>1365</v>
       </c>
       <c r="G112">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="H112" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I112" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4300,28 +4305,28 @@
         <v>171</v>
       </c>
       <c r="B113" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C113" t="s">
         <v>20</v>
       </c>
       <c r="D113" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E113">
-        <v>2475</v>
+        <v>2710</v>
       </c>
       <c r="F113">
-        <v>3070</v>
+        <v>1365</v>
       </c>
       <c r="G113">
         <v>90</v>
       </c>
       <c r="H113" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I113" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4329,28 +4334,28 @@
         <v>172</v>
       </c>
       <c r="B114" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C114" t="s">
         <v>20</v>
       </c>
       <c r="D114" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E114">
-        <v>2595</v>
+        <v>3060</v>
       </c>
       <c r="F114">
-        <v>3070</v>
+        <v>1365</v>
       </c>
       <c r="G114">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="H114" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I114" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4358,28 +4363,28 @@
         <v>173</v>
       </c>
       <c r="B115" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C115" t="s">
         <v>20</v>
       </c>
       <c r="D115" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E115">
-        <v>2685</v>
+        <v>2965</v>
       </c>
       <c r="F115">
-        <v>3070</v>
+        <v>1365</v>
       </c>
       <c r="G115">
         <v>90</v>
       </c>
       <c r="H115" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I115" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4387,28 +4392,28 @@
         <v>174</v>
       </c>
       <c r="B116" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C116" t="s">
         <v>20</v>
       </c>
       <c r="D116" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E116">
-        <v>1540</v>
+        <v>565</v>
       </c>
       <c r="F116">
-        <v>2340</v>
+        <v>2970</v>
       </c>
       <c r="G116">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="H116" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I116" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4416,28 +4421,28 @@
         <v>175</v>
       </c>
       <c r="B117" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C117" t="s">
         <v>20</v>
       </c>
       <c r="D117" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E117">
-        <v>1630</v>
+        <v>1040</v>
       </c>
       <c r="F117">
-        <v>2340</v>
+        <v>2970</v>
       </c>
       <c r="G117">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="H117" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I117" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4445,28 +4450,28 @@
         <v>176</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C118" t="s">
         <v>20</v>
       </c>
       <c r="D118" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E118">
-        <v>1070</v>
+        <v>1405</v>
       </c>
       <c r="F118">
-        <v>2340</v>
+        <v>2970</v>
       </c>
       <c r="G118">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="H118" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I118" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4474,28 +4479,25 @@
         <v>177</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C119" t="s">
         <v>20</v>
       </c>
       <c r="D119" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E119">
-        <v>1160</v>
+        <v>1995</v>
       </c>
       <c r="F119">
-        <v>2340</v>
+        <v>3135</v>
       </c>
       <c r="G119">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="H119" t="s">
-        <v>39</v>
-      </c>
-      <c r="I119" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4503,28 +4505,25 @@
         <v>178</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C120" t="s">
         <v>20</v>
       </c>
       <c r="D120" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E120">
-        <v>595</v>
+        <v>1995</v>
       </c>
       <c r="F120">
-        <v>2340</v>
+        <v>3505</v>
       </c>
       <c r="G120">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="H120" t="s">
-        <v>39</v>
-      </c>
-      <c r="I120" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4532,28 +4531,28 @@
         <v>179</v>
       </c>
       <c r="B121" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C121" t="s">
         <v>20</v>
       </c>
       <c r="D121" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E121">
-        <v>685</v>
+        <v>380</v>
       </c>
       <c r="F121">
-        <v>2340</v>
+        <v>979.56700000000001</v>
       </c>
       <c r="G121">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="I121" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4561,28 +4560,28 @@
         <v>180</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C122" t="s">
         <v>20</v>
       </c>
       <c r="D122" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E122">
-        <v>945</v>
+        <v>820</v>
       </c>
       <c r="F122">
-        <v>2970</v>
+        <v>2865</v>
       </c>
       <c r="G122">
         <v>270</v>
       </c>
       <c r="H122" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="I122" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4590,28 +4589,28 @@
         <v>181</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C123" t="s">
         <v>20</v>
       </c>
       <c r="D123" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E123">
-        <v>1505</v>
+        <v>1295</v>
       </c>
       <c r="F123">
-        <v>2970</v>
+        <v>2865</v>
       </c>
       <c r="G123">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="H123" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="I123" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4619,28 +4618,28 @@
         <v>182</v>
       </c>
       <c r="B124" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C124" t="s">
         <v>20</v>
       </c>
       <c r="D124" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E124">
-        <v>465</v>
+        <v>1765</v>
       </c>
       <c r="F124">
-        <v>2970</v>
+        <v>2870</v>
       </c>
       <c r="G124">
         <v>270</v>
       </c>
       <c r="H124" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="I124" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
